--- a/mcmaster_excel/Metric_Extra-Wide_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_Extra-Wide_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,176 +434,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FlangeDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>75,000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>95612A131</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>$3.20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>FlangeDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Size,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>75,000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>95612A111</t>
-        </is>
-      </c>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -638,12 +568,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>95612A112</t>
+          <t>95612A131</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>$3.20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -660,7 +590,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -695,12 +625,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>95612A113</t>
+          <t>95612A111</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +647,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -727,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -742,7 +672,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -752,17 +682,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>95612A132</t>
+          <t>95612A112</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -774,7 +704,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -784,12 +714,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -799,7 +729,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -809,17 +739,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>95612A133</t>
+          <t>95612A113</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -831,7 +761,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -866,12 +796,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>95612A114</t>
+          <t>95612A132</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -888,7 +818,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -923,12 +853,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>95612A115</t>
+          <t>95612A133</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -945,7 +875,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -980,12 +910,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>95612A116</t>
+          <t>95612A114</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1002,7 +932,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1037,12 +967,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>95612A134</t>
+          <t>95612A115</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1059,7 +989,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1094,12 +1024,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>95612A135</t>
+          <t>95612A116</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1116,7 +1046,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1126,12 +1056,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1141,7 +1071,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1151,17 +1081,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>95612A136</t>
+          <t>95612A134</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1173,7 +1103,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1183,12 +1113,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1198,7 +1128,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1208,17 +1138,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>95612A137</t>
+          <t>95612A135</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1230,7 +1160,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1265,12 +1195,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>95612A117</t>
+          <t>95612A136</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1287,7 +1217,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1322,12 +1252,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>95612A118</t>
+          <t>95612A137</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1344,7 +1274,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1379,12 +1309,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>95612A119</t>
+          <t>95612A117</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1401,7 +1331,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1436,12 +1366,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>95612A138</t>
+          <t>95612A118</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1458,7 +1388,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1493,12 +1423,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>95612A139</t>
+          <t>95612A119</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1515,7 +1445,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1525,12 +1455,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1540,7 +1470,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1550,17 +1480,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>95612A141</t>
+          <t>95612A138</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1572,7 +1502,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1582,12 +1512,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1597,7 +1527,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1607,17 +1537,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>95612A142</t>
+          <t>95612A139</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1629,7 +1559,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1664,12 +1594,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>95612A120</t>
+          <t>95612A141</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1686,7 +1616,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1721,12 +1651,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>95612A143</t>
+          <t>95612A142</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1743,7 +1673,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1778,12 +1708,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>95612A121</t>
+          <t>95612A120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1800,7 +1730,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1835,12 +1765,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>95612A122</t>
+          <t>95612A143</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1857,7 +1787,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1892,12 +1822,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>95612A144</t>
+          <t>95612A121</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1914,7 +1844,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1949,12 +1879,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>95612A145</t>
+          <t>95612A122</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1971,7 +1901,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2006,12 +1936,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>95612A146</t>
+          <t>95612A144</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2028,7 +1958,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2038,12 +1968,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2053,7 +1983,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2063,17 +1993,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>95612A147</t>
+          <t>95612A145</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
+          <t>M6 × 1 mm</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2085,7 +2015,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2095,12 +2025,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2110,7 +2040,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2120,17 +2050,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>95612A148</t>
+          <t>95612A146</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
+          <t>M6 × 1 mm</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2142,55 +2072,169 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>95612A147</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>95612A148</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>21.40</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>5.20</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>75,000</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>95612A149</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>11.75</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>316 Stainless Steel</t>
         </is>
